--- a/Sessao_2/dados.xlsx
+++ b/Sessao_2/dados.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C4ECEF-D702-45CB-A7FA-E2EA28BC0BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FDABB9-58D7-4AF9-A307-9AD609149452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corr_angular" sheetId="1" r:id="rId1"/>
-    <sheet name="eixo_detetores" sheetId="2" r:id="rId2"/>
+    <sheet name="eficiencia" sheetId="3" r:id="rId2"/>
+    <sheet name="eixo_detetores" sheetId="2" r:id="rId3"/>
+    <sheet name="fundo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>theta</t>
   </si>
@@ -97,12 +99,75 @@
   </si>
   <si>
     <t>eRb corr</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>T1/2 [s]</t>
+  </si>
+  <si>
+    <t>eT1/2 [s]</t>
+  </si>
+  <si>
+    <t>Atividade 0 [per s]</t>
+  </si>
+  <si>
+    <t>et [s]</t>
+  </si>
+  <si>
+    <t>eA atual [per s]</t>
+  </si>
+  <si>
+    <t>A atual [per s]</t>
+  </si>
+  <si>
+    <t>Area Superfície esférica [m2]</t>
+  </si>
+  <si>
+    <t>e Area Superfície esférica [m2]</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+  </si>
+  <si>
+    <t>Area do detetor [m2]</t>
+  </si>
+  <si>
+    <t>e Area do detetor [m2]</t>
+  </si>
+  <si>
+    <t>Fração das Areas</t>
+  </si>
+  <si>
+    <t>e Fração das Areas</t>
+  </si>
+  <si>
+    <t>Recebido teórico [per s]</t>
+  </si>
+  <si>
+    <t>e Recebido teórico [per s]</t>
+  </si>
+  <si>
+    <t>efi geometrica [%]</t>
+  </si>
+  <si>
+    <t>e efi geometrica [%]</t>
+  </si>
+  <si>
+    <t>Recebido exp [per s]</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,12 +184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,12 +210,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +510,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,491 +528,923 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>6598</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>6389</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1997</v>
       </c>
+      <c r="F2" s="3">
+        <f>E2/A2</f>
+        <v>99.85</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SQRT(E2)/A2</f>
+        <v>2.234390297150433</v>
+      </c>
+      <c r="H2" s="3">
+        <f>F2-0.1689</f>
+        <v>99.681100000000001</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SQRT(G2*G2+0.0447*0.0447)</f>
+        <v>2.234837374396625</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>6563</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>6305</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1995</v>
       </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F28" si="0">E3/A3</f>
+        <v>99.75</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G28" si="1">SQRT(E3)/A3</f>
+        <v>2.2332711434127295</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H28" si="2">F3-0.1689</f>
+        <v>99.581100000000006</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I28" si="3">SQRT(G3*G3+0.0447*0.0447)</f>
+        <v>2.2337184446568012</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6640</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>6366</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1946</v>
       </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>97.3</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2056745000112778</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>97.131100000000004</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2061273965934061</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>6633</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>6499</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1892</v>
       </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>94.6</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1748563170931545</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>94.431100000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1753156299718897</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>6526</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>6265</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1643</v>
       </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>82.15</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0266968199511242</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>81.981100000000012</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0271897025192285</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>6569</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>6429</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1435</v>
       </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>71.75</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8940696924875813</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>71.581100000000006</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8945970785367534</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6663</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6325</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1256</v>
       </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>62.8</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.772004514666935</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>62.631099999999996</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7725682187154319</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6426</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6355</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1085</v>
       </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>54.25</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6469669092000605</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>54.081099999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6475733944198057</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6583</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6547</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>965</v>
       </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>48.25</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5532224567009068</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>48.081099999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5538655315052201</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>6390</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>6371</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>752</v>
       </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>37.6</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3711309200802089</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>37.431100000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3718593550360767</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>6670</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6501</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>669</v>
       </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>33.450000000000003</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2932517156377563</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>33.281100000000002</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2940239912768234</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>60</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>19896</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>19505</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1009</v>
       </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>16.816666666666666</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52941267247561963</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>16.647766666666666</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.53129640294074798</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>90</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>29471</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>28410</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>335</v>
       </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7222222222222223</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20336672464136807</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5533222222222225</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2082213118087532</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>120</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>39601</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>38356</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>71</v>
       </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0217914776469659E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.42276666666666668</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3238486023927388E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>-1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>6727</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>6286</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1978</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>98.9</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2237355957937086</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>98.731100000000012</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2241848147130221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>6617</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>6361</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1778</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1083168642308014</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>88.731100000000012</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1087906700286778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>6525</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>6383</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1671</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>83.55</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0438933435969693</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>83.381100000000004</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0443820802384272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>-4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>6663</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>6490</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1495</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>74.75</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9332614929181204</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>74.581100000000006</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9337781904861786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>-5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>6655</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>6445</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1353</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.839157415774952</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>67.481100000000012</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8397005435668055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>-6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>6717</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>6468</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1144</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6911534525287764</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>57.031100000000002</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6917440970785151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>-7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>6708</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>6414</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>968</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>48.4</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5556349186104046</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>48.231099999999998</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5562769965529915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>-8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>6633</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>6348</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>773</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>38.65</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3901438774457844</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>38.481099999999998</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3908623548000716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>-9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>6655</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>6316</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>625</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>31.081099999999999</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.250798980651967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>-10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>6768</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>6370</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>498</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1157956802210698</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>24.731099999999998</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1166906868063331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>60</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>-12</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>19720</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>19249</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>680</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4346134936801766</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>11.164433333333333</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.43690614425627949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>90</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>-15</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>29892</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>28454</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13471506281091267</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4644333333333333</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14193744448928247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>120</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>-20</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>39852</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>38500</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>60</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4549722436790288E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>7.8515964406397423E-2</v>
       </c>
     </row>
   </sheetData>
@@ -941,11 +1453,740 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F98DECD-21B4-4530-B2BB-2D6CD957726C}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" customWidth="1"/>
+    <col min="16" max="16" width="24.88671875" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22.5546875" customWidth="1"/>
+    <col min="19" max="19" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <f>0.00001*37000000000</f>
+        <v>370000.00000000006</v>
+      </c>
+      <c r="C2" s="2">
+        <f>2.6018*365*24*60*60</f>
+        <v>82050364.799999997</v>
+      </c>
+      <c r="D2" s="2">
+        <f>0.0022*365*24*60*60</f>
+        <v>69379.200000000012</v>
+      </c>
+      <c r="E2" s="2">
+        <f>7*365*24*60*60</f>
+        <v>220752000</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1/12*365*60*24*60</f>
+        <v>2627999.9999999995</v>
+      </c>
+      <c r="G2" s="3">
+        <f>B2*0.5^(E2/C2)</f>
+        <v>57318.795344642342</v>
+      </c>
+      <c r="H2" s="3">
+        <f>LN(2)*SQRT(0.5^(2*E2/C2)*B2^2*(F2^2*C2^2+D2^2*E2^2)/C2^4)</f>
+        <v>1275.7339141719901</v>
+      </c>
+      <c r="I2" s="2">
+        <f>4*PI()*0.158</f>
+        <v>1.9854865570687492</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <f>PI()*(0.0565*0.5)^2</f>
+        <v>2.5071872871055044E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <f>2*PI()*0.0565*0.5*0.0002</f>
+        <v>3.5499996985564662E-5</v>
+      </c>
+      <c r="M2" s="2">
+        <f>K2/I2</f>
+        <v>1.2627571202531646E-3</v>
+      </c>
+      <c r="N2" s="2" t="e">
+        <f>SQRT((L2^2*I2^2+J2^2*K2^2)/I2^4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O2" s="2">
+        <f>(G2+G3)*M2</f>
+        <v>108.56957541867159</v>
+      </c>
+      <c r="P2" s="2" t="e">
+        <f>SQRT(H2^2*M2^2+H3^2*M2^2+N2^2*(G2+G3)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>O2/(G2+G3)*100</f>
+        <v>0.12627571202531646</v>
+      </c>
+      <c r="R2" s="2" t="e">
+        <f>SQRT((P2^2*(G2+G3)^2+(H2+H3)^2*O2^2)/(G2+G3)^4)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <f>0.000005*37000000000</f>
+        <v>185000.00000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <f>2.6018*365*24*60*60</f>
+        <v>82050364.799999997</v>
+      </c>
+      <c r="D3" s="2">
+        <f>0.0022*365*24*60*60</f>
+        <v>69379.200000000012</v>
+      </c>
+      <c r="E3" s="2">
+        <f>7*365*24*60*60</f>
+        <v>220752000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>1/12*365*60*24*60</f>
+        <v>2627999.9999999995</v>
+      </c>
+      <c r="G3" s="3">
+        <f>B3*0.5^(E3/C3)</f>
+        <v>28659.397672321171</v>
+      </c>
+      <c r="H3" s="3">
+        <f>LN(2)*SQRT(0.5^(2*E3/C3)*B3^2*(F3^2*C3^2+D3^2*E3^2)/C3^4)</f>
+        <v>637.86695708599507</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4AAA52-F8C7-4F65-B83C-0C8E7494ECC7}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,258 +2212,584 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>60</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>B2*0.5*2.54</f>
         <v>1.27</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>23495</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>16726</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5934</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="G2" s="5">
+        <f>D2/A2</f>
+        <v>391.58333333333331</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SQRT(D2)/A2</f>
+        <v>2.5546798016363792</v>
+      </c>
+      <c r="I2" s="5">
+        <f>E2/A2</f>
+        <v>278.76666666666665</v>
+      </c>
+      <c r="J2" s="5">
+        <f>SQRT(E2)/A2</f>
+        <v>2.1554839621558566</v>
+      </c>
+      <c r="K2" s="5">
+        <f>F2/A2</f>
+        <v>98.9</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SQRT(F2)/A2</f>
+        <v>1.2838743448380505</v>
+      </c>
+      <c r="M2" s="5">
+        <f>G2-5.8233</f>
+        <v>385.7600333333333</v>
+      </c>
+      <c r="N2" s="5">
+        <f>SQRT(H2^2+0.1396^2)</f>
+        <v>2.5584911664668475</v>
+      </c>
+      <c r="O2" s="5">
+        <f>I2-4.6504</f>
+        <v>274.11626666666666</v>
+      </c>
+      <c r="P2" s="5">
+        <f>SQRT(J2^2+0.1257^2)</f>
+        <v>2.1591460351516547</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>K2-0.1689</f>
+        <v>98.731100000000012</v>
+      </c>
+      <c r="R2" s="5">
+        <f>SQRT(L2^2+0.0447^2)</f>
+        <v>1.2846522577465598</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>60</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>-1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C7" si="0">B3*0.5*2.54</f>
         <v>-1.27</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>17746</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>22405</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>5872</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G7" si="1">D3/A3</f>
+        <v>295.76666666666665</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H7" si="2">SQRT(D3)/A3</f>
+        <v>2.2202352227735793</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I7" si="3">E3/A3</f>
+        <v>373.41666666666669</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J7" si="4">SQRT(E3)/A3</f>
+        <v>2.494716639442466</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K7" si="5">F3/A3</f>
+        <v>97.86666666666666</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L7" si="6">SQRT(F3)/A3</f>
+        <v>1.2771496040445345</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M7" si="7">G3-5.8233</f>
+        <v>289.94336666666663</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N7" si="8">SQRT(H3^2+0.1396^2)</f>
+        <v>2.2246196538834329</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O7" si="9">I3-4.6504</f>
+        <v>368.7662666666667</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P7" si="10">SQRT(J3^2+0.1257^2)</f>
+        <v>2.4978814225481383</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q7" si="11">K3-0.1689</f>
+        <v>97.697766666666666</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R7" si="12">SQRT(L3^2+0.0447^2)</f>
+        <v>1.2779316104984302</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>60</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>27383</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>14591</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5490</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>456.38333333333333</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>2.757968253785545</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="3"/>
+        <v>243.18333333333334</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0132201954966464</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="5"/>
+        <v>91.5</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2349089035228469</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="7"/>
+        <v>450.56003333333331</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="8"/>
+        <v>2.7614990582813692</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="9"/>
+        <v>238.53293333333335</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="10"/>
+        <v>2.0171405616752529</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="11"/>
+        <v>91.331100000000006</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2357176416965163</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>3.81</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>32960</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>13018</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>4982</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>549.33333333333337</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>3.0258148581093911</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>216.96666666666667</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9016075071136818</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="5"/>
+        <v>83.033333333333331</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1763880690014197</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="7"/>
+        <v>543.51003333333335</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="8"/>
+        <v>3.0290334622706885</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="9"/>
+        <v>212.31626666666668</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9057574874865666</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="11"/>
+        <v>82.864433333333338</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1772370104991132</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>-2.54</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>15186</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>26171</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>5357</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>253.1</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0538581580365607</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>436.18333333333334</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6962422410128917</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="5"/>
+        <v>89.283333333333331</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2198588260760159</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="7"/>
+        <v>247.27670000000001</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="8"/>
+        <v>2.058596972049977</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="9"/>
+        <v>431.53293333333335</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="10"/>
+        <v>2.6991707452886748</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="11"/>
+        <v>89.114433333333338</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2206775354513393</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>60</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>-3.81</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>13278</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>30850</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>4807</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>221.3</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9205034062279958</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>514.16666666666663</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>2.927361345041716</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="5"/>
+        <v>80.11666666666666</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="6"/>
+        <v>1.15554220077753</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="7"/>
+        <v>215.47670000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9255704332309773</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="9"/>
+        <v>509.51626666666664</v>
+      </c>
+      <c r="P7" s="5">
+        <f>SQRT(J7^2+0.1257^2)</f>
+        <v>2.930058861941931</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="11"/>
+        <v>79.947766666666666</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1564064457524343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE8B4F-A4F7-42AC-AD64-DAE511D4D566}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6960</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5469</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2/A2</f>
+        <v>5.8</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SQRT(B2)/A2</f>
+        <v>6.9522178715380703E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2/A2</f>
+        <v>4.5575000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SQRT(C2)/A2</f>
+        <v>6.1627239648281068E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>300</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1754</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1423</v>
+      </c>
+      <c r="D3" s="3">
+        <f>B3/A3</f>
+        <v>5.8466666666666667</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SQRT(B3)/A3</f>
+        <v>0.13960261060914617</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/A3</f>
+        <v>4.7433333333333332</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SQRT(C3)/A3</f>
+        <v>0.12574224075906679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <f>SUM(D2:D3)/2</f>
+        <v>5.8233333333333333</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4-D2</f>
+        <v>2.3333333333333428E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM(F2:F3)/2</f>
+        <v>4.6504166666666666</v>
+      </c>
+      <c r="G4" s="3">
+        <f>F4-F2</f>
+        <v>9.2916666666666536E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sessao_2/dados.xlsx
+++ b/Sessao_2/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FDABB9-58D7-4AF9-A307-9AD609149452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2B2AA-DC50-445A-9CB8-335DE9886389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corr_angular" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>theta</t>
   </si>
@@ -128,9 +128,6 @@
     <t>e Area Superfície esférica [m2]</t>
   </si>
   <si>
-    <t>!!!!!</t>
-  </si>
-  <si>
     <t>Area do detetor [m2]</t>
   </si>
   <si>
@@ -155,18 +152,59 @@
     <t>e efi geometrica [%]</t>
   </si>
   <si>
-    <t>Recebido exp [per s]</t>
-  </si>
-  <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>eEiA exp[%]</t>
+  </si>
+  <si>
+    <t>eEiB exp[%]</t>
+  </si>
+  <si>
+    <t>Efp A exp [%]</t>
+  </si>
+  <si>
+    <t>eEfp A exp[%]</t>
+  </si>
+  <si>
+    <t>Efp B exp [%]</t>
+  </si>
+  <si>
+    <t>eEfp B exp[%]</t>
+  </si>
+  <si>
+    <t>EiA exp[%]</t>
+  </si>
+  <si>
+    <t>EiB exp[%]</t>
+  </si>
+  <si>
+    <t>Ra exp [1/s]</t>
+  </si>
+  <si>
+    <t>eRa exp [1/s]</t>
+  </si>
+  <si>
+    <t>Rb exp [1/s]</t>
+  </si>
+  <si>
+    <t>eRb exp [1/s]</t>
+  </si>
+  <si>
+    <t>Rc exp [1/s]</t>
+  </si>
+  <si>
+    <t>eRc exp [1/s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -210,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +263,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +571,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -555,8 +599,20 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>20</v>
       </c>
@@ -588,8 +644,24 @@
         <f>SQRT(G2*G2+0.0447*0.0447)</f>
         <v>2.234837374396625</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>C2/A2-5.8233</f>
+        <v>324.07669999999996</v>
+      </c>
+      <c r="K2">
+        <f>SQRT((SQRT(C2)/A2)^2+0.1396^2)</f>
+        <v>4.0638021802248199</v>
+      </c>
+      <c r="L2">
+        <f>D2/A2-4.6504</f>
+        <v>314.7996</v>
+      </c>
+      <c r="M2">
+        <f>SQRT((SQRT(D2)/A2)^2+0.1257^2)</f>
+        <v>3.9985372938113257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -622,7 +694,7 @@
         <v>2.2337184446568012</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -655,7 +727,7 @@
         <v>2.2061273965934061</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>20</v>
       </c>
@@ -688,7 +760,7 @@
         <v>2.1753156299718897</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -721,7 +793,7 @@
         <v>2.0271897025192285</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -754,7 +826,7 @@
         <v>1.8945970785367534</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>20</v>
       </c>
@@ -787,7 +859,7 @@
         <v>1.7725682187154319</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>20</v>
       </c>
@@ -820,7 +892,7 @@
         <v>1.6475733944198057</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>20</v>
       </c>
@@ -853,7 +925,7 @@
         <v>1.5538655315052201</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -886,7 +958,7 @@
         <v>1.3718593550360767</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>20</v>
       </c>
@@ -919,7 +991,7 @@
         <v>1.2940239912768234</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>60</v>
       </c>
@@ -952,7 +1024,7 @@
         <v>0.53129640294074798</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>90</v>
       </c>
@@ -985,7 +1057,7 @@
         <v>0.2082213118087532</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>120</v>
       </c>
@@ -1018,7 +1090,7 @@
         <v>8.3238486023927388E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>20</v>
       </c>
@@ -1454,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F98DECD-21B4-4530-B2BB-2D6CD957726C}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,9 +1552,22 @@
     <col min="17" max="17" width="19.33203125" customWidth="1"/>
     <col min="18" max="18" width="22.5546875" customWidth="1"/>
     <col min="19" max="19" width="23.44140625" customWidth="1"/>
+    <col min="20" max="20" width="23.109375" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="16.5546875" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" customWidth="1"/>
+    <col min="29" max="29" width="12.21875" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="32" max="32" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1514,34 +1599,73 @@
         <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -1573,47 +1697,104 @@
         <f>LN(2)*SQRT(0.5^(2*E2/C2)*B2^2*(F2^2*C2^2+D2^2*E2^2)/C2^4)</f>
         <v>1275.7339141719901</v>
       </c>
-      <c r="I2" s="2">
-        <f>4*PI()*0.158</f>
-        <v>1.9854865570687492</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="I2" s="6">
+        <f>4*PI()*0.158^2</f>
+        <v>0.31370687601686237</v>
+      </c>
+      <c r="J2" s="7">
+        <f>8*PI()*0.158*0.001805</f>
+        <v>7.1676064710181845E-3</v>
+      </c>
+      <c r="K2" s="3">
         <f>PI()*(0.0565*0.5)^2</f>
         <v>2.5071872871055044E-3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="7">
         <f>2*PI()*0.0565*0.5*0.0002</f>
         <v>3.5499996985564662E-5</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="6">
         <f>K2/I2</f>
-        <v>1.2627571202531646E-3</v>
-      </c>
-      <c r="N2" s="2" t="e">
+        <v>7.9921336724883846E-3</v>
+      </c>
+      <c r="N2" s="6">
         <f>SQRT((L2^2*I2^2+J2^2*K2^2)/I2^4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O2" s="2">
-        <f>(G2+G3)*M2</f>
-        <v>108.56957541867159</v>
-      </c>
-      <c r="P2" s="2" t="e">
+        <v>2.1482660300278615E-4</v>
+      </c>
+      <c r="O2" s="3">
+        <f>(G2+G3)*M2*0.9</f>
+        <v>618.43429035952181</v>
+      </c>
+      <c r="P2" s="3">
         <f>SQRT(H2^2*M2^2+H3^2*M2^2+N2^2*(G2+G3)^2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>O2/(G2+G3)*100</f>
-        <v>0.12627571202531646</v>
-      </c>
-      <c r="R2" s="2" t="e">
-        <f>SQRT((P2^2*(G2+G3)^2+(H2+H3)^2*O2^2)/(G2+G3)^4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21.704829671314972</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>O2/(G2*0.9+G3*0.9)*100</f>
+        <v>0.79921336724883851</v>
+      </c>
+      <c r="R2" s="3">
+        <f>SQRT((P2^2*(G2*0.9+G3*0.9)^2+(H2+H3)^2*O2^2)/(G2*0.9+G3*0.9)^4)</f>
+        <v>3.4313363129897319E-4</v>
+      </c>
+      <c r="S2" s="3">
+        <f>corr_angular!J2</f>
+        <v>324.07669999999996</v>
+      </c>
+      <c r="T2" s="3">
+        <f>corr_angular!K2</f>
+        <v>4.0638021802248199</v>
+      </c>
+      <c r="U2" s="3">
+        <f>corr_angular!L2</f>
+        <v>314.7996</v>
+      </c>
+      <c r="V2" s="3">
+        <f>corr_angular!M2</f>
+        <v>3.9985372938113257</v>
+      </c>
+      <c r="W2" s="3">
+        <f>corr_angular!H2</f>
+        <v>99.681100000000001</v>
+      </c>
+      <c r="X2" s="3">
+        <f>corr_angular!I2</f>
+        <v>2.234837374396625</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>W2/S2*100</f>
+        <v>30.758490196919436</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>SQRT((X2^2*S2^2+T2^2*W2^2)/S2^4)*100</f>
+        <v>0.79013583061212211</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>W2/U2*100</f>
+        <v>31.664938583149404</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>SQRT((X2^2*U2^2+V2^2*W2^2)/U2^4)*100</f>
+        <v>0.81594076829568685</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>$S$2/O2*100</f>
+        <v>52.402770197558191</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>SQRT(($T$2^2*O2^2+P2^2*$S$2^2)/O2^4)*100</f>
+        <v>1.9530147912845335</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>$U$2/O2*100</f>
+        <v>50.902675499606232</v>
+      </c>
+      <c r="AF2" s="3">
+        <f>SQRT(($V$2^2*O2^2+P2^2*$U$2^2)/O2^4)*100</f>
+        <v>1.8999014994633054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -1645,45 +1826,137 @@
         <f>LN(2)*SQRT(0.5^(2*E3/C3)*B3^2*(F3^2*C3^2+D3^2*E3^2)/C3^4)</f>
         <v>637.86695708599507</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I3" s="6">
+        <f>4*PI()*0.170436^2</f>
+        <v>0.36503333835164098</v>
+      </c>
+      <c r="J3" s="7">
+        <f>8*PI()*0.170436*0.002559</f>
+        <v>1.0961537619304013E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>PI()*(0.0565*0.5)^2</f>
+        <v>2.5071872871055044E-3</v>
+      </c>
+      <c r="L3" s="7">
+        <f>2*PI()*0.0565*0.5*0.0002</f>
+        <v>3.5499996985564662E-5</v>
+      </c>
+      <c r="M3" s="6">
+        <f>K3/I3</f>
+        <v>6.8683789223939343E-3</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SQRT((L3^2*I3^2+J3^2*K3^2)/I3^4)</f>
+        <v>2.2802794723430846E-4</v>
+      </c>
+      <c r="O3" s="3">
+        <f>(G2+G3)*M3*0.9</f>
+        <v>531.47772783290668</v>
+      </c>
+      <c r="P3" s="3">
+        <f>SQRT($H$3^2*M3^2+$H$2^2*M3^2+N3^2*($G$2*0.9+$G$3*0.9)^2)</f>
+        <v>20.181991347533398</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>O3/($G$3*0.9+$G$2*0.9)*100</f>
+        <v>0.68683789223939351</v>
+      </c>
+      <c r="R3" s="3">
+        <f>SQRT((P3^2*($G$2*0.9+$G$3*0.9)^2+($H$2+$H$3)^2*O3^2)/($G$2*0.9+$G$3*0.9)^4)</f>
+        <v>3.1124734545657384E-4</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" ref="AC3:AC4" si="0">$S$2/O3*100</f>
+        <v>60.97653448648137</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" ref="AD3:AD4" si="1">SQRT(($T$2^2*O3^2+P3^2*$S$2^2)/O3^4)*100</f>
+        <v>2.438465166633188</v>
+      </c>
+      <c r="AE3" s="3">
+        <f t="shared" ref="AE3:AE4" si="2">$U$2/O3*100</f>
+        <v>59.231005085310187</v>
+      </c>
+      <c r="AF3" s="3">
+        <f t="shared" ref="AF3:AF4" si="3">SQRT(($V$2^2*O3^2+P3^2*$U$2^2)/O3^4)*100</f>
+        <v>2.3716914896712513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I4" s="6">
+        <f>4*PI()*0.176103^2</f>
+        <v>0.38971163580000984</v>
+      </c>
+      <c r="J4" s="7">
+        <f>8*PI()*0.176103*0.001574</f>
+        <v>6.9664470764179542E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <f>PI()*(0.0565*0.5)^2</f>
+        <v>2.5071872871055044E-3</v>
+      </c>
+      <c r="L4" s="7">
+        <f>2*PI()*0.0565*0.5*0.0002</f>
+        <v>3.5499996985564662E-5</v>
+      </c>
+      <c r="M4" s="6">
+        <f>K4/I4</f>
+        <v>6.4334422090289592E-3</v>
+      </c>
+      <c r="N4" s="6">
+        <f>SQRT((L4^2*I4^2+J4^2*K4^2)/I4^4)</f>
+        <v>1.4670976966662408E-4</v>
+      </c>
+      <c r="O4" s="3">
+        <f>(G2+G3)*M4*0.9</f>
+        <v>497.82216241023485</v>
+      </c>
+      <c r="P4" s="3">
+        <f>SQRT($H$3^2*M4^2+$H$2^2*M4^2+N4^2*($G$2*0.9+$G$3*0.9)^2)</f>
+        <v>14.597233698244935</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>O4/($G$3*0.9+$G$2*0.9)*100</f>
+        <v>0.643344220902896</v>
+      </c>
+      <c r="R4" s="3">
+        <f>SQRT((P4^2*($G$2*0.9+$G$3*0.9)^2+($H$2+$H$3)^2*O4^2)/($G$2*0.9+$G$3*0.9)^4)</f>
+        <v>2.4677541924889897E-4</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="0"/>
+        <v>65.09888961772289</v>
+      </c>
+      <c r="AD4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0760656390081147</v>
+      </c>
+      <c r="AE4" s="3">
+        <f t="shared" si="2"/>
+        <v>63.235352656032731</v>
+      </c>
+      <c r="AF4" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0206911552627491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1696,14 +1969,14 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1716,7 +1989,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1736,7 +2009,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1756,7 +2029,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1776,7 +2049,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1796,7 +2069,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1816,7 +2089,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1836,7 +2109,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1856,7 +2129,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1876,7 +2149,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1896,7 +2169,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2185,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4AAA52-F8C7-4F65-B83C-0C8E7494ECC7}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,7 +2666,7 @@
         <v>368.7662666666667</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P7" si="10">SQRT(J3^2+0.1257^2)</f>
+        <f t="shared" ref="P3:P6" si="10">SQRT(J3^2+0.1257^2)</f>
         <v>2.4978814225481383</v>
       </c>
       <c r="Q3" s="5">
@@ -2688,17 +2961,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE8B4F-A4F7-42AC-AD64-DAE511D4D566}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -2719,7 +2992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1200</v>
       </c>
@@ -2745,8 +3018,12 @@
         <f>SQRT(C2)/A2</f>
         <v>6.1627239648281068E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>4/1200</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>300</v>
       </c>
@@ -2773,7 +3050,7 @@
         <v>0.12574224075906679</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" s="4">
         <f>SUM(D2:D3)/2</f>
         <v>5.8233333333333333</v>

--- a/Sessao_2/dados.xlsx
+++ b/Sessao_2/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2B2AA-DC50-445A-9CB8-335DE9886389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E3FEC-151D-4B5A-8AE6-496479D07C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corr_angular" sheetId="1" r:id="rId1"/>
@@ -203,8 +203,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -265,10 +265,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F98DECD-21B4-4530-B2BB-2D6CD957726C}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4:AF4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
